--- a/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体国内演出观众人次.xlsx
+++ b/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体国内演出观众人次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,755 +543,675 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6195</v>
+        <v>6773</v>
       </c>
       <c r="C2" t="n">
-        <v>2075</v>
+        <v>4804</v>
       </c>
       <c r="D2" t="n">
-        <v>12144</v>
+        <v>17193</v>
       </c>
       <c r="E2" t="n">
-        <v>185468</v>
+        <v>406554</v>
       </c>
       <c r="F2" t="n">
-        <v>212924</v>
+        <v>411434</v>
       </c>
       <c r="G2" t="n">
-        <v>454357</v>
+        <v>680703</v>
       </c>
       <c r="H2" t="n">
-        <v>368354</v>
+        <v>411025</v>
       </c>
       <c r="I2" t="n">
-        <v>127783</v>
+        <v>133254</v>
       </c>
       <c r="J2" t="n">
-        <v>327683</v>
+        <v>450028</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>418944</v>
+        <v>473124</v>
       </c>
       <c r="N2" t="n">
-        <v>36342</v>
+        <v>39539</v>
       </c>
       <c r="O2" t="n">
-        <v>67710</v>
+        <v>85018</v>
       </c>
       <c r="P2" t="n">
-        <v>17669</v>
+        <v>30845</v>
       </c>
       <c r="Q2" t="n">
-        <v>78467</v>
+        <v>133672</v>
       </c>
       <c r="R2" t="n">
-        <v>43533</v>
+        <v>63828</v>
       </c>
       <c r="S2" t="n">
-        <v>74982</v>
+        <v>126113</v>
       </c>
       <c r="T2" t="n">
-        <v>631868</v>
+        <v>884558</v>
       </c>
       <c r="U2" t="n">
-        <v>26940</v>
+        <v>14539</v>
       </c>
       <c r="V2" t="n">
-        <v>78046</v>
+        <v>66979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4130</v>
+        <v>9481.280000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>3308</v>
+        <v>5033.35</v>
       </c>
       <c r="D3" t="n">
-        <v>17788</v>
+        <v>15309.35</v>
       </c>
       <c r="E3" t="n">
-        <v>357550</v>
+        <v>328408.26</v>
       </c>
       <c r="F3" t="n">
-        <v>368567</v>
+        <v>338286.75</v>
       </c>
       <c r="G3" t="n">
-        <v>641304</v>
+        <v>564018.42</v>
       </c>
       <c r="H3" t="n">
-        <v>374870</v>
+        <v>374743.02</v>
       </c>
       <c r="I3" t="n">
-        <v>125447</v>
+        <v>115850.73</v>
       </c>
       <c r="J3" t="n">
-        <v>456600</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>372176.12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>391368.21</v>
+      </c>
+      <c r="L3" t="n">
+        <v>354482.29</v>
+      </c>
       <c r="M3" t="n">
-        <v>448592</v>
+        <v>407563.75</v>
       </c>
       <c r="N3" t="n">
-        <v>39590</v>
+        <v>34772.44</v>
       </c>
       <c r="O3" t="n">
-        <v>82506</v>
+        <v>100038.45</v>
       </c>
       <c r="P3" t="n">
-        <v>21374</v>
+        <v>22206.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>119791</v>
+        <v>92557.05</v>
       </c>
       <c r="R3" t="n">
-        <v>46278</v>
+        <v>56500.07</v>
       </c>
       <c r="S3" t="n">
-        <v>82092</v>
+        <v>106562.92</v>
       </c>
       <c r="T3" t="n">
-        <v>817159</v>
+        <v>745850.5</v>
       </c>
       <c r="U3" t="n">
-        <v>11898</v>
+        <v>12503.69</v>
       </c>
       <c r="V3" t="n">
-        <v>84739</v>
+        <v>42699.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6773</v>
+        <v>3633.92</v>
       </c>
       <c r="C4" t="n">
-        <v>4804</v>
+        <v>4793.07</v>
       </c>
       <c r="D4" t="n">
-        <v>17193</v>
+        <v>17326.62</v>
       </c>
       <c r="E4" t="n">
-        <v>406554</v>
+        <v>393408.73</v>
       </c>
       <c r="F4" t="n">
-        <v>411434</v>
+        <v>468822.57</v>
       </c>
       <c r="G4" t="n">
-        <v>680703</v>
+        <v>642009.42</v>
       </c>
       <c r="H4" t="n">
-        <v>411025</v>
+        <v>399649.67</v>
       </c>
       <c r="I4" t="n">
-        <v>133254</v>
+        <v>131857.44</v>
       </c>
       <c r="J4" t="n">
-        <v>450028</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>417180.12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>299697.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>528353.17</v>
+      </c>
       <c r="M4" t="n">
-        <v>473124</v>
+        <v>359228.36</v>
       </c>
       <c r="N4" t="n">
-        <v>39539</v>
+        <v>29441.77</v>
       </c>
       <c r="O4" t="n">
-        <v>85018</v>
+        <v>88212.72</v>
       </c>
       <c r="P4" t="n">
-        <v>30845</v>
+        <v>33209.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>133672</v>
+        <v>93251.42999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>63828</v>
+        <v>50550.17</v>
       </c>
       <c r="S4" t="n">
-        <v>126113</v>
+        <v>102002.02</v>
       </c>
       <c r="T4" t="n">
-        <v>884558</v>
+        <v>828050.92</v>
       </c>
       <c r="U4" t="n">
-        <v>14539</v>
+        <v>59960.58</v>
       </c>
       <c r="V4" t="n">
-        <v>66979</v>
+        <v>34992.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9481.280000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5033.35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15309.35</v>
-      </c>
+        <v>5424.9</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>328408.26</v>
+        <v>580102.28</v>
       </c>
       <c r="F5" t="n">
-        <v>338286.75</v>
+        <v>552979.67</v>
       </c>
       <c r="G5" t="n">
-        <v>564018.42</v>
+        <v>758017.2</v>
       </c>
       <c r="H5" t="n">
-        <v>374743.02</v>
+        <v>286054.37</v>
       </c>
       <c r="I5" t="n">
-        <v>115850.73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>372176.12</v>
-      </c>
+        <v>89690.24000000001</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>391368.21</v>
+        <v>264044.66</v>
       </c>
       <c r="L5" t="n">
-        <v>354482.29</v>
+        <v>636597.85</v>
       </c>
       <c r="M5" t="n">
-        <v>407563.75</v>
-      </c>
-      <c r="N5" t="n">
-        <v>34772.44</v>
-      </c>
-      <c r="O5" t="n">
-        <v>100038.45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>22206.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>92557.05</v>
-      </c>
+        <v>347662.85</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>56500.07</v>
-      </c>
-      <c r="S5" t="n">
-        <v>106562.92</v>
-      </c>
+        <v>47510.18</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>745850.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>12503.69</v>
-      </c>
+        <v>900642.51</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>42699.2</v>
+        <v>34485.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3633.92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4793.07</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17326.62</v>
-      </c>
+        <v>4613.53</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>393408.73</v>
+        <v>609250.2</v>
       </c>
       <c r="F6" t="n">
-        <v>468822.57</v>
+        <v>575772.05</v>
       </c>
       <c r="G6" t="n">
-        <v>642009.42</v>
+        <v>775196.36</v>
       </c>
       <c r="H6" t="n">
-        <v>399649.67</v>
+        <v>271407.26</v>
       </c>
       <c r="I6" t="n">
-        <v>131857.44</v>
-      </c>
-      <c r="J6" t="n">
-        <v>417180.12</v>
-      </c>
+        <v>87717.97</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>299697.75</v>
+        <v>244481.2</v>
       </c>
       <c r="L6" t="n">
-        <v>528353.17</v>
+        <v>665715.5699999999</v>
       </c>
       <c r="M6" t="n">
-        <v>359228.36</v>
-      </c>
-      <c r="N6" t="n">
-        <v>29441.77</v>
-      </c>
-      <c r="O6" t="n">
-        <v>88212.72</v>
-      </c>
-      <c r="P6" t="n">
-        <v>33209.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>93251.42999999999</v>
-      </c>
+        <v>334424.72</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>50550.17</v>
-      </c>
-      <c r="S6" t="n">
-        <v>102002.02</v>
-      </c>
+        <v>42668.91</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>828050.92</v>
-      </c>
-      <c r="U6" t="n">
-        <v>59960.58</v>
-      </c>
+        <v>910196.77</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>34992.55</v>
+        <v>29539.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5424.9</v>
+        <v>3998.43</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>580102.28</v>
+        <v>656509.1</v>
       </c>
       <c r="F7" t="n">
-        <v>552979.67</v>
+        <v>623760.59</v>
       </c>
       <c r="G7" t="n">
-        <v>758017.2</v>
+        <v>827320.7</v>
       </c>
       <c r="H7" t="n">
-        <v>286054.37</v>
+        <v>270849.48</v>
       </c>
       <c r="I7" t="n">
-        <v>89690.24000000001</v>
+        <v>84586.16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>264044.66</v>
+        <v>244276.14</v>
       </c>
       <c r="L7" t="n">
-        <v>636597.85</v>
+        <v>713713.78</v>
       </c>
       <c r="M7" t="n">
-        <v>347662.85</v>
+        <v>334229.34</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>47510.18</v>
+        <v>42084.63</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>900642.51</v>
+        <v>957989.92</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>34485.86</v>
+        <v>30631.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4613.53</v>
+        <v>3046.63</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>609250.2</v>
+        <v>879789.86</v>
       </c>
       <c r="F8" t="n">
-        <v>575772.05</v>
+        <v>846138.6800000001</v>
       </c>
       <c r="G8" t="n">
-        <v>775196.36</v>
+        <v>1055576.2</v>
       </c>
       <c r="H8" t="n">
-        <v>271407.26</v>
+        <v>271693.1</v>
       </c>
       <c r="I8" t="n">
-        <v>87717.97</v>
+        <v>84865.99000000001</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>244481.2</v>
+        <v>241252.76</v>
       </c>
       <c r="L8" t="n">
-        <v>665715.5699999999</v>
+        <v>940123.9399999999</v>
       </c>
       <c r="M8" t="n">
-        <v>334424.72</v>
+        <v>335238.02</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>42668.91</v>
+        <v>37887.89</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>910196.77</v>
+        <v>1181376.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>29539.32</v>
+        <v>29893.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3998.43</v>
+        <v>2548.1</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>656509.1</v>
+        <v>927710.52</v>
       </c>
       <c r="F9" t="n">
-        <v>623760.59</v>
+        <v>895297.37</v>
       </c>
       <c r="G9" t="n">
-        <v>827320.7</v>
+        <v>1126873.17</v>
       </c>
       <c r="H9" t="n">
-        <v>270849.48</v>
+        <v>290798.52</v>
       </c>
       <c r="I9" t="n">
-        <v>84586.16</v>
+        <v>82554.02</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>244276.14</v>
+        <v>257233.48</v>
       </c>
       <c r="L9" t="n">
-        <v>713713.78</v>
+        <v>990157.14</v>
       </c>
       <c r="M9" t="n">
-        <v>334229.34</v>
+        <v>352093.26</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>42084.63</v>
+        <v>35415.33</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>957989.92</v>
+        <v>1247390.62</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>30631.35</v>
+        <v>28881.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3046.63</v>
+        <v>3000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>879789.86</v>
+        <v>876240</v>
       </c>
       <c r="F10" t="n">
-        <v>846138.6800000001</v>
+        <v>847030</v>
       </c>
       <c r="G10" t="n">
-        <v>1055576.2</v>
+        <v>1055250</v>
       </c>
       <c r="H10" t="n">
-        <v>271693.1</v>
+        <v>270880</v>
       </c>
       <c r="I10" t="n">
-        <v>84865.99000000001</v>
+        <v>81290</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>241252.76</v>
+        <v>234250</v>
       </c>
       <c r="L10" t="n">
-        <v>940123.9399999999</v>
+        <v>941450</v>
       </c>
       <c r="M10" t="n">
-        <v>335238.02</v>
+        <v>328670</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>37887.89</v>
+        <v>36150</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>1181376.7</v>
+        <v>1175690</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>29893.74</v>
+        <v>28570</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2548.1</v>
+        <v>2950</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>927710.52</v>
+        <v>945650</v>
       </c>
       <c r="F11" t="n">
-        <v>895297.37</v>
+        <v>914980</v>
       </c>
       <c r="G11" t="n">
-        <v>1126873.17</v>
+        <v>1114380</v>
       </c>
       <c r="H11" t="n">
-        <v>290798.52</v>
+        <v>256150</v>
       </c>
       <c r="I11" t="n">
-        <v>82554.02</v>
+        <v>79370</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>257233.48</v>
+        <v>224720</v>
       </c>
       <c r="L11" t="n">
-        <v>990157.14</v>
+        <v>1005480</v>
       </c>
       <c r="M11" t="n">
-        <v>352093.26</v>
+        <v>315210</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>35415.33</v>
+        <v>33500</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>1247390.62</v>
+        <v>1230200</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>28881.58</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3000</v>
+        <v>785.1</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>876240</v>
+        <v>720379</v>
       </c>
       <c r="F12" t="n">
-        <v>847030</v>
+        <v>707333.8</v>
       </c>
       <c r="G12" t="n">
-        <v>1055250</v>
+        <v>827700.4</v>
       </c>
       <c r="H12" t="n">
-        <v>270880</v>
+        <v>149209.7</v>
       </c>
       <c r="I12" t="n">
-        <v>81290</v>
+        <v>42797.1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>234250</v>
+        <v>127559.7</v>
       </c>
       <c r="L12" t="n">
-        <v>941450</v>
+        <v>761958.4</v>
       </c>
       <c r="M12" t="n">
-        <v>328670</v>
+        <v>182184.3</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>36150</v>
+        <v>18235.5</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>1175690</v>
+        <v>889518.1</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>28570</v>
+        <v>19929.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2950</v>
+        <v>825.2</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>945650</v>
+        <v>757109.9</v>
       </c>
       <c r="F13" t="n">
-        <v>914980</v>
+        <v>742788.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1114380</v>
+        <v>858037.2</v>
       </c>
       <c r="H13" t="n">
-        <v>256150</v>
+        <v>154857.8</v>
       </c>
       <c r="I13" t="n">
-        <v>79370</v>
+        <v>46195.4</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>224720</v>
+        <v>191902.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1005480</v>
+        <v>736132.7</v>
       </c>
       <c r="M13" t="n">
-        <v>315210</v>
+        <v>185246.8</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>33500</v>
+        <v>22977.2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>1230200</v>
+        <v>928035</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>28400</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>785.1</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>720379</v>
-      </c>
-      <c r="F14" t="n">
-        <v>707333.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>827700.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>149209.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>42797.1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>127559.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>761958.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>182184.3</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>18235.5</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>889518.1</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
-        <v>19929.5</v>
+        <v>16067.3</v>
       </c>
     </row>
   </sheetData>
